--- a/medicine/Mort/Mort_(mythologie)/Mort_(mythologie).xlsx
+++ b/medicine/Mort/Mort_(mythologie)/Mort_(mythologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort a été représentée en tant que figure anthropomorphe ou comme personnage fictif dans de nombreuses mythologies et cultures populaires.
 La personnification de la mort en tant qu'entité vivante, consciente et sensible, est liée à l'idée de la mort et à son poids historique et philosophique considérable. Selon les langues, elle est un personnage soit féminin, soit masculin. Elle est souvent représentée sous forme d'un squelette (ou d'un corps squelettique présentant quelques rares lambeaux de peau sur certains os), parfois vêtue d'un grand manteau noir à capuche et d'une cape.
@@ -514,13 +526,15 @@
           <t>Représentations notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Au Moyen Âge, la Mort est imaginée comme un corps humain momifié ou en décomposition, qui deviendra plus tard le squelette vêtu d'une toge qui nous est familier.
 Inversement, la Mort est parfois représentée sous les traits d'une belle femme souvent vêtue de noir et d'une longue faux.
 À cause de l'intime lien entre le Temps, la Vieillesse et la Mort, le Temps en tant que figure mythologique est parfois associé à la Mort.
 Un psychopompe est un esprit, une déité ou un être dont la tâche est de conduire les âmes récemment décédées dans l'autre monde.
-La représentation de la mort portant une faux remonte à l'image du titan grec Cronos. Celui-ci était fréquemment représenté en portant un globe surmonté d'une faux. Cronos est le père des dieux de l'Olympe, dont Zeus. Cependant, pour échapper à la malédiction lancée par son père Ouranos, il décide de dévorer ses enfants. Au sixième enfant, son épouse Rhéa, lassée de ces infanticides lui donne une pierre à manger à la place de l'enfant : Zeus. Ce dernier combat son père et en le frappant au ventre lui fait « vomir » les autres enfants, qui le renverseront plus tard. Exilé sur Terre, en qualité de simple mortel, il fonde une communauté agricole, désignée par les Anciens sous le nom d'Âge d'Or. De là viendrait l'attribut de la faux, outil qui symbolise les récoltes, et de cette manière les saisons qui rythment l'existence, que Cronos a cru pouvoir maîtriser[1].</t>
+La représentation de la mort portant une faux remonte à l'image du titan grec Cronos. Celui-ci était fréquemment représenté en portant un globe surmonté d'une faux. Cronos est le père des dieux de l'Olympe, dont Zeus. Cependant, pour échapper à la malédiction lancée par son père Ouranos, il décide de dévorer ses enfants. Au sixième enfant, son épouse Rhéa, lassée de ces infanticides lui donne une pierre à manger à la place de l'enfant : Zeus. Ce dernier combat son père et en le frappant au ventre lui fait « vomir » les autres enfants, qui le renverseront plus tard. Exilé sur Terre, en qualité de simple mortel, il fonde une communauté agricole, désignée par les Anciens sous le nom d'Âge d'Or. De là viendrait l'attribut de la faux, outil qui symbolise les récoltes, et de cette manière les saisons qui rythment l'existence, que Cronos a cru pouvoir maîtriser.</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Dans les mythologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe dans toutes les mythologies des divinités qui incarnent la Mort ou certains de ses aspects :
 Ammit (Égyptien)
@@ -578,19 +594,6 @@
 Yama (Hindou)
 Yanluowang (Chinois)
 Jeoseung Saja (Coréen)
-Mythologie hindoue
-Dans les écrits hindous connus sous le nom de Vedas, le maître des morts est appelé Yama ou Yamaraj (littéralement le seigneur de la mort). Yamaraj monte un bœuf noir et possède un lasso torsadé avec lequel il attrape les âmes pour les emmener dans sa demeure, Yamalok. Ce sont ses suivants, les Yamaduts, qui  portent les âmes jusqu'à Yamalok. Ici, les bonnes et les mauvaises actions sont comptabilisées par Chitragupta, qui autorise alors Yama à décider où iront les âmes dans leur prochaine vie, suivant la théorie de la réincarnation.
-On croit que les âmes peuvent renaître sur Terre aussi bien dans un univers paradisiaque qu'infernal, en fonction des actions de la vie passée. Celles qui peuvent se prévaloir d'un bon karma et d'un bon bakhti dans leurs vies atteignent le Moksha, la libération du cycle des morts et des renaissances, ainsi que des souffrances induites par la vie emprisonnée dans le corps. Yama est également mentionné dans le Mahabharata comme un grand philosophe et comme un dévot de Krishna.
-De façon intéressante, Yama est aussi connu comme Dharmaraj ou roi du Dharma ou de la justice. Le raisonnement est que justice soit faite équitablement pour tous - s'ils sont vivants ou morts, basé sur leur karma ou leur destin. C'est davantage consolidé par le fait que Yudhishthira, l'aîné des Pândava est considéré comme la personnification de la justice, à Mahabharata où il était né en raison des prières de Kunti à Yamaraj.
-Au Japon
-Dans le Kojiki, on raconte qu'après avoir donné naissance au dieu du feu Kagutsuchi, la déesse Izanami mourut, blessée par ce feu, et entra dans le royaume de la nuit perpétuelle, Yaminokuni. Par la suite, Izanagi, son époux, la trouva dans le pays de Yomi alors qu'il tentait de la ramener chez les vivants. Hélas, Yomi est situé dans le monde souterrain, et Izanagi retrouva son épouse ravagée par la décomposition. Lors d'une dispute avec lui, Izanami proclama que prendre 1000 vies chaque jour était la preuve de sa position de déesse des morts.
-Dans la culture populaire, la mort est également représentée sous les traits d’Enma (Yama), Enma Ō ou Enma Daiō (Enma-Roi ou Enma-Grand Roi, traductions de यम रज Yama Raja). Le Yama hindouiste a également inspiré le Yanluo chinois et le Enma japonais. Enma règne sur le monde souterrain, pareil à l'Hadès grec, et décide si les morts vont au paradis ou en enfer. Les parents japonais menaçaient ainsi leurs enfants : s'ils mentaient, Enma leur couperait la langue dans l'au-delà.
-Il existe d'autres dieux de la mort, les shinigamis, qui ressemblent à la vision occidentale de la mort sous la forme de faucheuse. Les représentations des shinigamis (le terme est souvent au pluriel en français) sont courantes dans l'art et la fiction du Japon moderne, et totalement absentes dans la mythologie japonaise traditionnelle.
-Paganisme slave
-Les anciennes tribus slaves voyaient la mort comme une femme vêtue de blanc, tenant à la main des jeunes pousses qui ne fanaient jamais. Être touché par ces pousses faisait tomber dans un sommeil perpétuel. Cette représentation a survécu au christianisme durant tout le Moyen Âge, et n'a été remplacée par l'image plus répandue dans la tradition européenne d'un squelette allant et venant qu'à la fin du XVe siècle.
-Paganisme lituanien
-Les Lituaniens appelaient la Mort Giltinè, du mot « gelti » qui signifie « piquer ». Giltinè était représentée sous les traits d'une vieille femme laide, avec un long nez bleu et une langue empoisonnée. La légende raconte que Giltinè était une jolie jeune femme enjouée qui fut emprisonnée durant sept ans dans un cercueil. La déesse de la Mort était la sœur de la déesse de la Vie et de la Destinée, Laima, ce qui symbolisait les relations entre le début et la fin de la vie.
-Par la suite, les Lituaniens ont adopté la vision chrétienne de la Mort, avec sa robe noire et sa faux.
 </t>
         </is>
       </c>
@@ -616,65 +619,437 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dans les mythologies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mythologie hindoue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les écrits hindous connus sous le nom de Vedas, le maître des morts est appelé Yama ou Yamaraj (littéralement le seigneur de la mort). Yamaraj monte un bœuf noir et possède un lasso torsadé avec lequel il attrape les âmes pour les emmener dans sa demeure, Yamalok. Ce sont ses suivants, les Yamaduts, qui  portent les âmes jusqu'à Yamalok. Ici, les bonnes et les mauvaises actions sont comptabilisées par Chitragupta, qui autorise alors Yama à décider où iront les âmes dans leur prochaine vie, suivant la théorie de la réincarnation.
+On croit que les âmes peuvent renaître sur Terre aussi bien dans un univers paradisiaque qu'infernal, en fonction des actions de la vie passée. Celles qui peuvent se prévaloir d'un bon karma et d'un bon bakhti dans leurs vies atteignent le Moksha, la libération du cycle des morts et des renaissances, ainsi que des souffrances induites par la vie emprisonnée dans le corps. Yama est également mentionné dans le Mahabharata comme un grand philosophe et comme un dévot de Krishna.
+De façon intéressante, Yama est aussi connu comme Dharmaraj ou roi du Dharma ou de la justice. Le raisonnement est que justice soit faite équitablement pour tous - s'ils sont vivants ou morts, basé sur leur karma ou leur destin. C'est davantage consolidé par le fait que Yudhishthira, l'aîné des Pândava est considéré comme la personnification de la justice, à Mahabharata où il était né en raison des prières de Kunti à Yamaraj.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans les mythologies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Japon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Kojiki, on raconte qu'après avoir donné naissance au dieu du feu Kagutsuchi, la déesse Izanami mourut, blessée par ce feu, et entra dans le royaume de la nuit perpétuelle, Yaminokuni. Par la suite, Izanagi, son époux, la trouva dans le pays de Yomi alors qu'il tentait de la ramener chez les vivants. Hélas, Yomi est situé dans le monde souterrain, et Izanagi retrouva son épouse ravagée par la décomposition. Lors d'une dispute avec lui, Izanami proclama que prendre 1000 vies chaque jour était la preuve de sa position de déesse des morts.
+Dans la culture populaire, la mort est également représentée sous les traits d’Enma (Yama), Enma Ō ou Enma Daiō (Enma-Roi ou Enma-Grand Roi, traductions de यम रज Yama Raja). Le Yama hindouiste a également inspiré le Yanluo chinois et le Enma japonais. Enma règne sur le monde souterrain, pareil à l'Hadès grec, et décide si les morts vont au paradis ou en enfer. Les parents japonais menaçaient ainsi leurs enfants : s'ils mentaient, Enma leur couperait la langue dans l'au-delà.
+Il existe d'autres dieux de la mort, les shinigamis, qui ressemblent à la vision occidentale de la mort sous la forme de faucheuse. Les représentations des shinigamis (le terme est souvent au pluriel en français) sont courantes dans l'art et la fiction du Japon moderne, et totalement absentes dans la mythologie japonaise traditionnelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans les mythologies</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Paganisme slave</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anciennes tribus slaves voyaient la mort comme une femme vêtue de blanc, tenant à la main des jeunes pousses qui ne fanaient jamais. Être touché par ces pousses faisait tomber dans un sommeil perpétuel. Cette représentation a survécu au christianisme durant tout le Moyen Âge, et n'a été remplacée par l'image plus répandue dans la tradition européenne d'un squelette allant et venant qu'à la fin du XVe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans les mythologies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Paganisme lituanien</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Lituaniens appelaient la Mort Giltinè, du mot « gelti » qui signifie « piquer ». Giltinè était représentée sous les traits d'une vieille femme laide, avec un long nez bleu et une langue empoisonnée. La légende raconte que Giltinè était une jolie jeune femme enjouée qui fut emprisonnée durant sept ans dans un cercueil. La déesse de la Mort était la sœur de la déesse de la Vie et de la Destinée, Laima, ce qui symbolisait les relations entre le début et la fin de la vie.
+Par la suite, les Lituaniens ont adopté la vision chrétienne de la Mort, avec sa robe noire et sa faux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dans les trois religions abrahamiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Bible, le quatrième cavalier de Révélation 6 est appelé la Mort : L'Ange du Seigneur a ainsi fauché 185 000 hommes dans un camp assyrien (2 Rois; 19,35).
 Quand Dieu décide de tuer les premiers-nés égyptiens, il ordonne au « destructeur » (shâchath) d'épargner les maisons marquées par du sang sur le linteau et les montants des portes (Exode; 12, 23). L'ange de la destruction mal'ak ha-mashḥit, se déchaîne contre le peuple de Jérusalem (2 Samuel ; 24,15).
-Dans les Chroniques (21, 16), le roi David voit « l'ange de Yahvé qui se tenait entre le ciel et la terre, l'épée dégainée à la main, tendue vers Jérusalem »[2].
+Dans les Chroniques (21, 16), le roi David voit « l'ange de Yahvé qui se tenait entre le ciel et la terre, l'épée dégainée à la main, tendue vers Jérusalem ».
 Dans le livre de Job (33,2), on trouve le terme de « destructeur » (memitim) que la tradition a identifié à « l'ange destructeur » (mal'ake Khabbalah), alors que le livre des Proverbes (26, 14) fait mention des « anges de la mort » (mal'ake ha-mavet). On trouve également le nom d'Azraël comme ange de la mort.
-Judaïsme
-D'après le Midrash, l'ange de la mort a été créé par Dieu lors du premier jour. Son domaine est le paradis, d'où il atteint la Terre en huit jours, alors même que la pestilence n'en met qu'un. Il possède 6 paires d'ailes.
-Christianisme
-La Mort est quelquefois mentionnée dans le Nouveau Testament, que ce soit sous forme de personnification, ou bien comme un état de fait. Elle est assimilée à l'ange diabolique Samaël. On trouve une allusion dans les Actes des Apôtres (2,24) : « Mais Dieu l'a ressuscité, le délivrant des affres de l'Hadès. Aussi bien n'était-il pas possible qu'il fût retenu en son pouvoir ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans les trois religions abrahamiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Judaïsme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Midrash, l'ange de la mort a été créé par Dieu lors du premier jour. Son domaine est le paradis, d'où il atteint la Terre en huit jours, alors même que la pestilence n'en met qu'un. Il possède 6 paires d'ailes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans les trois religions abrahamiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Christianisme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Mort est quelquefois mentionnée dans le Nouveau Testament, que ce soit sous forme de personnification, ou bien comme un état de fait. Elle est assimilée à l'ange diabolique Samaël. On trouve une allusion dans les Actes des Apôtres (2,24) : « Mais Dieu l'a ressuscité, le délivrant des affres de l'Hadès. Aussi bien n'était-il pas possible qu'il fût retenu en son pouvoir ».
 Quelques passages après, cependant, sont plus explicites. L'Épître aux Romains 5 parle de la Mort comme ayant « dominé de la période d'Adam à Moïse », et divers passages dans les Épître parlent du labeur du Christ sur la Croix et sa Résurrection comme une confrontation avec la Mort. Des versets de cette sorte incluent l'Épître aux Romains (6,9) et la Deuxième épître à Timothée (1,10).
 La Première épître aux Corinthiens (15,26) affirme, « Le dernier ennemi à détruire est la mort », qui implique que la Mort n'a pas été détruite une fois pour toutes, dans le sens où chaque chrétien doit être amené à vaincre la mort à son tour.
 Dans l'Apocalypse, la Mort est mentionnée comme un personnage capable de monter à cheval :
-6:8 Je regardai, et voici, parut un cheval d'une couleur pâle. Celui qui le montait se nommait la mort, et le séjour des morts l'accompagnait. Le pouvoir leur fut donné sur le quart de la terre, pour faire périr les hommes par l'épée, par la famine, par la mortalité, et par les bêtes sauvages de la terre[3].
-Au Mexique
-La christianisation de la société mexicaine s'est faite par le syncrétisme religieux avec les rituels et les croyances mésoaméricaines.
+6:8 Je regardai, et voici, parut un cheval d'une couleur pâle. Celui qui le montait se nommait la mort, et le séjour des morts l'accompagnait. Le pouvoir leur fut donné sur le quart de la terre, pour faire périr les hommes par l'épée, par la famine, par la mortalité, et par les bêtes sauvages de la terre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans les trois religions abrahamiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Christianisme</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Au Mexique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La christianisation de la société mexicaine s'est faite par le syncrétisme religieux avec les rituels et les croyances mésoaméricaines.
 Il en résulte, dans la tradition chrétienne (et même laïque) du Mexique contemporain, que la Mort est symbolisée sous des formes héritées à la fois des coutumes mésoaméricaines, chrétiennes et mexicaines. Pour la fête des morts, en particulier, on met en scène la Mort par de nombreuses représentations, telles que la Catrina ou les calaveras.
-Islam
-Dans la tradition islamique, l'Ange de la Mort s'appelle Malak Al Mawt. Qui se traduit littéralement par ange de la mort.
-Al-Ghazâlî, dans son ouvrage La perle précieuse (Ad-Doura al-fâkhira)[4] compile un ensemble de traditions, issues du Coran, de la sunna, des sentences des maîtres spirituels rapportées sous forme symbolique, relatives à la mort en islam[note 1].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mort_(mythologie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dans les trois religions abrahamiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la tradition islamique, l'Ange de la Mort s'appelle Malak Al Mawt. Qui se traduit littéralement par ange de la mort.
+Al-Ghazâlî, dans son ouvrage La perle précieuse (Ad-Doura al-fâkhira) compile un ensemble de traditions, issues du Coran, de la sunna, des sentences des maîtres spirituels rapportées sous forme symbolique, relatives à la mort en islam[note 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Dans les arts et la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le personnage de la Mort apparaît dans de nombreuses œuvres de fiction, que ce soit des films dramatiques ou comiques, de science-fiction ou de fantasy.
-Contes populaires
-La Voix de la Mort, conte roumain.
-Filmographie
-Cinéma
-Dans Hilde Warren et la Mort (1917) de Joe May, la mort apparait comme grêle et haute ainsi que libératrice.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le personnage de la Mort apparaît dans de nombreuses œuvres de fiction, que ce soit des films dramatiques ou comiques, de science-fiction ou de fantasy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Contes populaires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La Voix de la Mort, conte roumain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dans Hilde Warren et la Mort (1917) de Joe May, la mort apparait comme grêle et haute ainsi que libératrice.
 Dans Les Trois Lumières (1921), réalisé par Fritz Lang, la mort laisse trois chance à une jeune fille pour se sauver.
 Dans La mort prend des vacances (1934), réalisé par Mitchell Leisen, la mort essaie de se comporter comme les mortels.
 Dans Fährmann Maria (1936) réalisé par Frank Wisbar, la mort apparait comme un inconnu silencieux vêtu de noir.
@@ -689,10 +1064,48 @@
 Dans la série de films Destination finale (2000-2011) de James Wong, les personnages de chaque film sont tués, un à un, par la Mort elle-même. Elle se manifeste notamment dans le premier volet par une sorte de fumée noire que l'on aperçoit indirectement dans un reflet.
 Dans Click : télécommandez votre vie (2006) de Frank Coraci, le personnage de Michael Newman (Adam Sandler) est un homme qui découvre qu'il a le pouvoir de modifier des aspects de sa vie en utilisant une télécommande. La Mort, représentée par Morty (Christopher Walken), finit par emporter son père, puis Newman lui-même, après lui avoir expliqué l'importance de vivre sa vie au jour le jour.
 Dans Hellboy 2 (2008) de Guillermo del Toro, l'Ange de la mort sauve Hellboy à la demande d'Elizabeth Sherman, en dépit des conséquences funestes que cela implique pour le monde.
-Dans Le Dernier Conte de Rita (2011) de Renata Litvinova, une figure sophistiquée de la Mort est incarnée par la réalisatrice elle-même[5].
-Dans Le Chat potté 2 : La Dernière Quête (2022), le Chat potté est poursuivi par un loup encapuchonné bien décidé à le tuer. Vers la fin du film, le loup se présente comme la Mort elle-même et qu'elle a décidé de tuer Potté car ce dernier n'a jamais accordé la moindre valeur à ses vies et se moquait sans cesse de la Mort. Après un dernier combat sur l'Étoile à vœu, la Mort constate que le Chat potté n'est plus "la légende arrogante qui se croit immortelle" et décide de l'épargner pour qu'il puisse pleinement vivre sa dernière vie, mais lui promet cependant qu'ils se reverront.
-Télévision
-Séries
+Dans Le Dernier Conte de Rita (2011) de Renata Litvinova, une figure sophistiquée de la Mort est incarnée par la réalisatrice elle-même.
+Dans Le Chat potté 2 : La Dernière Quête (2022), le Chat potté est poursuivi par un loup encapuchonné bien décidé à le tuer. Vers la fin du film, le loup se présente comme la Mort elle-même et qu'elle a décidé de tuer Potté car ce dernier n'a jamais accordé la moindre valeur à ses vies et se moquait sans cesse de la Mort. Après un dernier combat sur l'Étoile à vœu, la Mort constate que le Chat potté n'est plus "la légende arrogante qui se croit immortelle" et décide de l'épargner pour qu'il puisse pleinement vivre sa dernière vie, mais lui promet cependant qu'ils se reverront.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Séries
 Dans Dead Like Me, après leur mort des gens sont obligé de travailler comme faucheurs obliger de récolter les âmes des personnes juste avant leur mort.
 Dans Supernatural, la Mort est présente dans les saisons 5 et 6 sous la forme d'un vieil homme aux cheveux longs, libéré par Lucifer, qui avait pour projet de déclencher l'Apocalypse.
 Dans Charmed, l'ange de la Mort n'appartient ni au bien ni au mal. Il emporte les personnes qui doivent mourir et on ne peut pas l'en empêcher. Il est personnifié par un homme vêtu de noir et n'ayant aucune autre particularité que d'être invincible.
@@ -702,23 +1115,132 @@
 Dans Adventure Time, la Mort est une divinité qui accompagne l'âme des mourants.
 Dans Teen TitanGo!, la mort est l'oncle de Raven.
 Dans Les Simpson apparait fréquemment comme un personnage à part lors des épisodes spéciaux halloweens.
-Dans Billy et Mandy, aventuriers de l'au-delà, la Mort est représentée par un squelette vêtu de la traditionnelle toge à capuche noire. Sous le nom du Faucheur d'Âmes, il s'est vu affublé le rôle de nourrice des deux enfants turbulents.
-Littérature
-Roman
-Dans le deuxième livre du Paradis perdu de John Milton (1667), la Mort garde avec Péché les clés de La Porte de l'enfer.
+Dans Billy et Mandy, aventuriers de l'au-delà, la Mort est représentée par un squelette vêtu de la traditionnelle toge à capuche noire. Sous le nom du Faucheur d'Âmes, il s'est vu affublé le rôle de nourrice des deux enfants turbulents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dans le deuxième livre du Paradis perdu de John Milton (1667), la Mort garde avec Péché les clés de La Porte de l'enfer.
 Dans l'univers du Disque-Monde de Terry Pratchett (1983), la Mort est un des personnages récurrents les plus importants. Il[note 2] apparaît dans tous livres de la série, sauf un.
 Dans Harry Potter et les Reliques de la Mort (2007), la Mort joue un rôle majeur dans un conte pour enfants. Il s'agit de l'histoire de trois frères sorciers qui réussissent à traverser une rivière dans laquelle se noyent habituellement tous les voyageurs. La Mort leur offre alors à chacun un objet magique, ce qui donne son titre au roman.
 Dans Un chant de Noël de Charles Dickens, l'esprit des Noël futurs, rappelle l'imagerie de la faucheuse.
-Dans Le Bureau des Âmes - Livre I - La Dame en noir (2022)[6], l'héroïne Prudence Lacroix est une faucheuse d'âmes qui effectue des permanences au cimetière du Père-Lachaise.
-Bande dessinée
-Dans la bande dessinée Death : La vie... à quel prix ! (1993), l'écrivain anglais Neil Gaiman imagine la Mort comme une jeune fille tout de noir vêtue arborant maquillage et bijou égyptien (un Ânkh), et partageant les émotions humaines.
-La Mort est le personnage principal de la série de la bande dessinée Les aventures de la Mort et de Lao-Tseu de Philippe Delan (1996)[7].
+Dans Le Bureau des Âmes - Livre I - La Dame en noir (2022), l'héroïne Prudence Lacroix est une faucheuse d'âmes qui effectue des permanences au cimetière du Père-Lachaise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Dans la bande dessinée Death : La vie... à quel prix ! (1993), l'écrivain anglais Neil Gaiman imagine la Mort comme une jeune fille tout de noir vêtue arborant maquillage et bijou égyptien (un Ânkh), et partageant les émotions humaines.
+La Mort est le personnage principal de la série de la bande dessinée Les aventures de la Mort et de Lao-Tseu de Philippe Delan (1996).
 Dans le manga Soul Eater, une académie sert à former des faucheurs d'âmes, à l'image de la Faucheuse. Le directeur de l'académie et son fils, un des protagonistes, sont eux-mêmes de shinigami, ou dieu de la mort.
-Dans la bande dessinée La Petite Mort(e) (2016), Davy Mourier créé un personnage féminin représenté en faucheuse[8].
+Dans la bande dessinée La Petite Mort(e) (2016), Davy Mourier créé un personnage féminin représenté en faucheuse.
 Dans la bande dessinée Memento Maurice (2019), Olivier Cotte et Martin Viot, la Mort s'incarne sur Terre pour tenter de devenir une grande artiste comique au théâtre en se faisant aider d'un chirurgien drôle mais bourré de défauts.
-Le personnage de la Mort, une entité cosmique dans l'univers de fiction des bande dessinées de Marvel Comics. Thanos s'en éprend longuement et tente tout pour l'impressionner, sans grand succès sur le long terme. Deadpool en tombera aussi amoureux, mais Thanos le rend immortel pour évincer toute concurrence.
-Musique
-Dans la chanson Der Tod und das Mädchen de Schubert, le dialogue entre la mort et la jeune fille est le thème.
+Le personnage de la Mort, une entité cosmique dans l'univers de fiction des bande dessinées de Marvel Comics. Thanos s'en éprend longuement et tente tout pour l'impressionner, sans grand succès sur le long terme. Deadpool en tombera aussi amoureux, mais Thanos le rend immortel pour évincer toute concurrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Dans la chanson Der Tod und das Mädchen de Schubert, le dialogue entre la mort et la jeune fille est le thème.
 Dans les chansons Chants et danses de la mort de Moussorgski, la mort a paru enfin comme le salvateur.
 Le groupe Blue Öyster Cult fait référence à la mort dans son tube de 1976 (Don't Fear) The Reaper (trad. « Ne crains pas la Faucheuse »).
 Le groupe de heavy metal britannique Iron Maiden a utilisé la mort comme figure de son album Dance of Death (2003).
@@ -731,9 +1253,43 @@
 Le groupe de black metal Antestor a utilisé la mort sur leur album The Forsaken (2005).
 Dans la comédie musicale Elisabeth, la Mort tombe amoureuse de l'impératrice Élisabeth, dite Sissi.
 Dans la chanson Mon bistrot préféré de Renaud, le chanteur y fait allusion et espère qu'elle l'y emmènera. Il y fait aussi référence dans Marche à l'ombre.
-L'album The Seventh Life Path du groupe Sirenia utilise la figure de la Faucheuse, aux côtés d'une jeune fille habillée de blanc.
-Jeux vidéo
-Dans les jeux vidéo Les Sims, Les Sims 2, Les Sims 3 et les Sims 4 la Mort est un personnage non jouable. Elle apparaît quand un sim meurt, tout type de mort confondu, et emporte ce sim dans l'Au-delà.
+L'album The Seventh Life Path du groupe Sirenia utilise la figure de la Faucheuse, aux côtés d'une jeune fille habillée de blanc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dans les arts et la culture populaire</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Dans les jeux vidéo Les Sims, Les Sims 2, Les Sims 3 et les Sims 4 la Mort est un personnage non jouable. Elle apparaît quand un sim meurt, tout type de mort confondu, et emporte ce sim dans l'Au-delà.
 Dans Magicka, la Mort est l'un des boss du jeu. Elle y est dépeinte comme un « agent de voyage ». Une fois vaincue, elle laisse son numéro de téléphone aux personnages joueurs (« 666-DEATH »), ces derniers apprenant à invoquer la Faucheuse pour tuer leurs ennemis ou eux-mêmes.
 Dans la série Castlevania, la Mort est un boss récurrent : selon l'histoire de la série (avant le reboot Castlevania: Lords of Shadow), elle a voué son entière dévotion au possesseur de la Pierre Cramoisie, qui n'est autre que Dracula.
 Dans MediEvil Resurrection, la Mort est l'un des principaux personnages du jeu et le seul allié du joueur, plutôt que son ennemi.
@@ -745,31 +1301,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mort_(mythologie)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_(mythologie)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			La Mort et le paysan. Manuscrit enluminé deJohannes von Tepl (vers 1470).
